--- a/NewProbableCasesOverTimeByCounty/2021-03-17.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-03-17.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F18F1FF-37B5-43E9-8181-5240B678C850}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Probable by County" sheetId="1" r:id="rId1"/>
+    <sheet name="Probable by County" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+  <si>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 03/17/2021 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+  </si>
   <si>
     <t>County</t>
   </si>
@@ -425,9 +437,6 @@
   </si>
   <si>
     <t>New Probable 2021-03-16</t>
-  </si>
-  <si>
-    <t>New Probable 2021-03-17</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1192,34 +1201,48 @@
     <t>Zavala</t>
   </si>
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 2021/03/17 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+    <t/>
   </si>
   <si>
     <t>Additional information can be found on the Data Notes page: https://dshs.texas.gov/coronavirus/datanotes.aspx.</t>
+  </si>
+  <si>
+    <t>New Probable 2021-03-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF003087"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF005CB9"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1239,17 +1262,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,17 +1276,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1282,44 +1314,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1346,14 +1378,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1380,6 +1430,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1391,606 +1459,590 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EH259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="EI151" sqref="EI151"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="138" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:138">
-      <c r="A1" t="s">
-        <v>392</v>
+    <row r="1" spans="1:138" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:138">
-      <c r="A2" t="s">
-        <v>393</v>
+    <row r="2" spans="1:138" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:138">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:138" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="U3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="V3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="W3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="X3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AA3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AC3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AD3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AE3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AF3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AG3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AH3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AI3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AK3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AL3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AM3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AN3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AO3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AP3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AR3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AS3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AT3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AU3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AV3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AW3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="AX3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="AY3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BB3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BC3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BD3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BE3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BF3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BG3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BH3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BI3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BK3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BL3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BM3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BN3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BO3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BP3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BR3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BS3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BT3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BU3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BV3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BW3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="BX3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="BY3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CA3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CB3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CC3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CD3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CE3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CF3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CG3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CH3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CI3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CK3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CL3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CM3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CN3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CO3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CP3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CR3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CS3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CT3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CU3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CV3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CW3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="CX3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="CY3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DA3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DB3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DC3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DD3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DE3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DF3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DG3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DH3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DI3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DJ3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DK3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DL3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DM3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DN3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DO3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="DP3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="DQ3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="DR3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="DS3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="DT3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="DU3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="DX3" s="1" t="s">
+      <c r="DV3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="DY3" s="1" t="s">
+      <c r="DW3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="DX3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="DY3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="DZ3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="EA3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="EB3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EC3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="ED3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="EE3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EF3" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="EG3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH3" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="4" spans="1:138">
+    <row r="4" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2404,9 +2456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:138">
+    <row r="5" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2820,9 +2872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:138">
+    <row r="6" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3236,9 +3288,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:138">
+    <row r="7" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3652,9 +3704,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:138">
+    <row r="8" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4068,9 +4120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:138">
+    <row r="9" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4484,9 +4536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:138">
+    <row r="10" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4900,9 +4952,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:138">
+    <row r="11" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5316,9 +5368,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:138">
+    <row r="12" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5732,9 +5784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:138">
+    <row r="13" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6148,9 +6200,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:138">
+    <row r="14" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6564,9 +6616,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:138">
+    <row r="15" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6980,9 +7032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:138">
+    <row r="16" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7396,9 +7448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:138">
+    <row r="17" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7812,9 +7864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:138">
+    <row r="18" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18">
         <v>54</v>
@@ -8228,9 +8280,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:138">
+    <row r="19" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8644,9 +8696,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:138">
+    <row r="20" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9060,9 +9112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:138">
+    <row r="21" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9476,9 +9528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:138">
+    <row r="22" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9892,9 +9944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:138">
+    <row r="23" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10308,9 +10360,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:138">
+    <row r="24" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10724,9 +10776,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:138">
+    <row r="25" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11140,9 +11192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:138">
+    <row r="26" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11556,9 +11608,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:138">
+    <row r="27" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11972,9 +12024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:138">
+    <row r="28" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12388,9 +12440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:138">
+    <row r="29" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12804,9 +12856,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:138">
+    <row r="30" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -13220,9 +13272,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:138">
+    <row r="31" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -13636,9 +13688,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:138">
+    <row r="32" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -14052,9 +14104,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:138">
+    <row r="33" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -14468,9 +14520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:138">
+    <row r="34" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -14884,9 +14936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:138">
+    <row r="35" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -15300,9 +15352,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:138">
+    <row r="36" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -15716,9 +15768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:138">
+    <row r="37" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -16132,9 +16184,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:138">
+    <row r="38" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -16548,9 +16600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:138">
+    <row r="39" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -16964,9 +17016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:138">
+    <row r="40" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -17380,9 +17432,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:138">
+    <row r="41" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -17796,9 +17848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:138">
+    <row r="42" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -18212,9 +18264,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:138">
+    <row r="43" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -18628,9 +18680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:138">
+    <row r="44" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -19044,9 +19096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:138">
+    <row r="45" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -19460,9 +19512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:138">
+    <row r="46" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B46">
         <v>30</v>
@@ -19876,9 +19928,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:138">
+    <row r="47" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -20292,9 +20344,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:138">
+    <row r="48" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -20708,9 +20760,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:138">
+    <row r="49" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -21124,9 +21176,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:138">
+    <row r="50" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -21540,9 +21592,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:138">
+    <row r="51" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -21956,9 +22008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:138">
+    <row r="52" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -22372,9 +22424,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:138">
+    <row r="53" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -22788,9 +22840,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:138">
+    <row r="54" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -23204,9 +23256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:138">
+    <row r="55" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -23620,9 +23672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:138">
+    <row r="56" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -24036,9 +24088,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:138">
+    <row r="57" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -24452,9 +24504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:138">
+    <row r="58" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -24868,9 +24920,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:138">
+    <row r="59" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -25284,9 +25336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:138">
+    <row r="60" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B60">
         <v>137</v>
@@ -25700,9 +25752,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:138">
+    <row r="61" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -26116,9 +26168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:138">
+    <row r="62" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -26532,9 +26584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:138">
+    <row r="63" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -26948,9 +27000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:138">
+    <row r="64" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B64">
         <v>23</v>
@@ -27364,9 +27416,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:138">
+    <row r="65" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -27780,9 +27832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:138">
+    <row r="66" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -28196,9 +28248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:138">
+    <row r="67" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -28612,9 +28664,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:138">
+    <row r="68" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -29028,9 +29080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:138">
+    <row r="69" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -29444,9 +29496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:138">
+    <row r="70" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -29860,9 +29912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:138">
+    <row r="71" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -30276,9 +30328,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:138">
+    <row r="72" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -30692,9 +30744,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:138">
+    <row r="73" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -31108,9 +31160,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:138">
+    <row r="74" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -31524,9 +31576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:138">
+    <row r="75" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -31940,9 +31992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:138">
+    <row r="76" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -32356,9 +32408,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:138">
+    <row r="77" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -32772,9 +32824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:138">
+    <row r="78" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -33188,9 +33240,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:138">
+    <row r="79" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -33604,9 +33656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:138">
+    <row r="80" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -34020,9 +34072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:138">
+    <row r="81" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -34436,9 +34488,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:138">
+    <row r="82" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B82">
         <v>13</v>
@@ -34852,9 +34904,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:138">
+    <row r="83" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -35268,9 +35320,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:138">
+    <row r="84" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -35684,9 +35736,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:138">
+    <row r="85" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -36100,9 +36152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:138">
+    <row r="86" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -36516,9 +36568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:138">
+    <row r="87" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -36932,9 +36984,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:138">
+    <row r="88" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -37348,9 +37400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:138">
+    <row r="89" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -37764,9 +37816,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:138">
+    <row r="90" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -38180,9 +38232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:138">
+    <row r="91" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -38596,9 +38648,9 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="92" spans="1:138">
+    <row r="92" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -39012,9 +39064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:138">
+    <row r="93" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -39428,9 +39480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:138">
+    <row r="94" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -39844,9 +39896,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:138">
+    <row r="95" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -40260,9 +40312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:138">
+    <row r="96" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -40676,9 +40728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:138">
+    <row r="97" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -41092,9 +41144,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:138">
+    <row r="98" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -41508,9 +41560,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:138">
+    <row r="99" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -41924,9 +41976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:138">
+    <row r="100" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -42340,9 +42392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:138">
+    <row r="101" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -42756,9 +42808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:138">
+    <row r="102" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -43172,9 +43224,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:138">
+    <row r="103" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B103">
         <v>11</v>
@@ -43588,9 +43640,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:138">
+    <row r="104" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -44004,9 +44056,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:138">
+    <row r="105" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -44420,9 +44472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:138">
+    <row r="106" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -44836,9 +44888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:138">
+    <row r="107" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -45252,9 +45304,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:138">
+    <row r="108" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -45668,9 +45720,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:138">
+    <row r="109" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -46084,9 +46136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:138">
+    <row r="110" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -46500,9 +46552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:138">
+    <row r="111" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -46916,9 +46968,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:138">
+    <row r="112" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -47332,9 +47384,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:138">
+    <row r="113" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -47748,9 +47800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:138">
+    <row r="114" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -48164,9 +48216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:138">
+    <row r="115" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -48580,9 +48632,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:138">
+    <row r="116" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -48996,9 +49048,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:138">
+    <row r="117" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -49412,9 +49464,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:138">
+    <row r="118" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -49828,9 +49880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:138">
+    <row r="119" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -50244,9 +50296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:138">
+    <row r="120" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -50660,9 +50712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:138">
+    <row r="121" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -51076,9 +51128,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:138">
+    <row r="122" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -51492,9 +51544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:138">
+    <row r="123" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -51908,9 +51960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:138">
+    <row r="124" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -52324,9 +52376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:138">
+    <row r="125" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -52740,9 +52792,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="126" spans="1:138">
+    <row r="126" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -53156,9 +53208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:138">
+    <row r="127" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -53572,9 +53624,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:138">
+    <row r="128" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -53988,9 +54040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:138">
+    <row r="129" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -54404,9 +54456,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:138">
+    <row r="130" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -54820,9 +54872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:138">
+    <row r="131" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -55236,9 +55288,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:138">
+    <row r="132" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -55652,9 +55704,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:138">
+    <row r="133" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -56068,9 +56120,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:138">
+    <row r="134" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -56484,9 +56536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:138">
+    <row r="135" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -56900,9 +56952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:138">
+    <row r="136" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -57316,9 +57368,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:138">
+    <row r="137" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -57732,9 +57784,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:138">
+    <row r="138" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -58148,9 +58200,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:138">
+    <row r="139" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -58564,9 +58616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:138">
+    <row r="140" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -58980,9 +59032,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:138">
+    <row r="141" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -59396,9 +59448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:138">
+    <row r="142" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -59812,9 +59864,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:138">
+    <row r="143" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -60228,9 +60280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:138">
+    <row r="144" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -60644,9 +60696,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:138">
+    <row r="145" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -61060,9 +61112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:138">
+    <row r="146" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -61476,9 +61528,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:138">
+    <row r="147" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -61892,9 +61944,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:138">
+    <row r="148" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -62308,9 +62360,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:138">
+    <row r="149" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -62724,9 +62776,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:138">
+    <row r="150" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -63140,9 +63192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:138">
+    <row r="151" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -63556,9 +63608,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:138">
+    <row r="152" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -63972,9 +64024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:138">
+    <row r="153" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -64388,9 +64440,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:138">
+    <row r="154" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -64804,9 +64856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:138">
+    <row r="155" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -65220,9 +65272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:138">
+    <row r="156" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -65636,9 +65688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:138">
+    <row r="157" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -66046,15 +66098,15 @@
         <v>0</v>
       </c>
       <c r="EG157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:138">
+    <row r="158" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -66462,15 +66514,15 @@
         <v>0</v>
       </c>
       <c r="EG158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:138">
+    <row r="159" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -66884,9 +66936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:138">
+    <row r="160" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -67300,9 +67352,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:138">
+    <row r="161" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -67710,15 +67762,15 @@
         <v>0</v>
       </c>
       <c r="EG161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH161">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:138">
+    <row r="162" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -68132,9 +68184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:138">
+    <row r="163" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -68542,15 +68594,15 @@
         <v>0</v>
       </c>
       <c r="EG163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:138">
+    <row r="164" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -68961,12 +69013,12 @@
         <v>0</v>
       </c>
       <c r="EH164">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:138">
+    <row r="165" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -69380,9 +69432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:138">
+    <row r="166" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -69796,9 +69848,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:138">
+    <row r="167" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -70212,9 +70264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:138">
+    <row r="168" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -70628,9 +70680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:138">
+    <row r="169" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -71044,9 +71096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:138">
+    <row r="170" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -71460,9 +71512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:138">
+    <row r="171" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -71876,9 +71928,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:138">
+    <row r="172" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -72292,9 +72344,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:138">
+    <row r="173" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -72708,9 +72760,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:138">
+    <row r="174" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -73124,9 +73176,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:138">
+    <row r="175" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -73540,9 +73592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:138">
+    <row r="176" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -73956,9 +74008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:138">
+    <row r="177" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -74372,9 +74424,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:138">
+    <row r="178" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -74788,9 +74840,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:138">
+    <row r="179" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -75204,9 +75256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:138">
+    <row r="180" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -75620,9 +75672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:138">
+    <row r="181" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B181">
         <v>23</v>
@@ -76036,9 +76088,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:138">
+    <row r="182" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -76452,9 +76504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:138">
+    <row r="183" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -76868,9 +76920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:138">
+    <row r="184" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -77284,9 +77336,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:138">
+    <row r="185" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -77700,9 +77752,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:138">
+    <row r="186" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -78116,9 +78168,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:138">
+    <row r="187" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -78532,9 +78584,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:138">
+    <row r="188" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -78948,9 +79000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:138">
+    <row r="189" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -79364,9 +79416,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:138">
+    <row r="190" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -79780,9 +79832,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:138">
+    <row r="191" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -80196,9 +80248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:138">
+    <row r="192" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -80612,9 +80664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:138">
+    <row r="193" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -81028,9 +81080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:138">
+    <row r="194" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -81444,9 +81496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:138">
+    <row r="195" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -81860,9 +81912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:138">
+    <row r="196" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -82276,9 +82328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:138">
+    <row r="197" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -82692,9 +82744,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:138">
+    <row r="198" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -83108,9 +83160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:138">
+    <row r="199" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -83524,9 +83576,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:138">
+    <row r="200" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -83940,9 +83992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:138">
+    <row r="201" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -84356,9 +84408,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:138">
+    <row r="202" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -84772,9 +84824,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:138">
+    <row r="203" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -85188,9 +85240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:138">
+    <row r="204" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -85604,9 +85656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:138">
+    <row r="205" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -86020,9 +86072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:138">
+    <row r="206" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -86436,9 +86488,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:138">
+    <row r="207" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -86852,9 +86904,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:138">
+    <row r="208" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -87268,9 +87320,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:138">
+    <row r="209" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -87684,9 +87736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:138">
+    <row r="210" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -88100,9 +88152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:138">
+    <row r="211" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -88516,9 +88568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:138">
+    <row r="212" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -88932,9 +88984,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:138">
+    <row r="213" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -89348,9 +89400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:138">
+    <row r="214" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -89764,9 +89816,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:138">
+    <row r="215" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -90180,9 +90232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:138">
+    <row r="216" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -90596,9 +90648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:138">
+    <row r="217" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -91012,9 +91064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:138">
+    <row r="218" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -91428,9 +91480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:138">
+    <row r="219" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -91844,9 +91896,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:138">
+    <row r="220" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -92260,9 +92312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:138">
+    <row r="221" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -92676,9 +92728,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:138">
+    <row r="222" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -93092,9 +93144,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:138">
+    <row r="223" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B223">
         <v>178</v>
@@ -93508,9 +93560,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="224" spans="1:138">
+    <row r="224" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B224">
         <v>35</v>
@@ -93924,9 +93976,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:138">
+    <row r="225" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -94340,9 +94392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:138">
+    <row r="226" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -94756,9 +94808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:138">
+    <row r="227" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -95172,9 +95224,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:138">
+    <row r="228" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -95588,9 +95640,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:138">
+    <row r="229" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B229">
         <v>38</v>
@@ -96004,9 +96056,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:138">
+    <row r="230" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -96420,9 +96472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:138">
+    <row r="231" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -96836,9 +96888,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:138">
+    <row r="232" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -97252,9 +97304,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:138">
+    <row r="233" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -97668,9 +97720,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:138">
+    <row r="234" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -98084,9 +98136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:138">
+    <row r="235" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -98500,9 +98552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:138">
+    <row r="236" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -98916,9 +98968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:138">
+    <row r="237" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -99332,9 +99384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:138">
+    <row r="238" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -99748,9 +99800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:138">
+    <row r="239" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B239">
         <v>3</v>
@@ -100164,9 +100216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:138">
+    <row r="240" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -100580,9 +100632,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:138">
+    <row r="241" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -100996,9 +101048,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:138">
+    <row r="242" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -101412,9 +101464,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:138">
+    <row r="243" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -101828,9 +101880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:138">
+    <row r="244" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -102244,9 +102296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:138">
+    <row r="245" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -102660,9 +102712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:138">
+    <row r="246" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -103076,9 +103128,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:138">
+    <row r="247" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -103492,9 +103544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:138">
+    <row r="248" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -103908,9 +103960,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:138">
+    <row r="249" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -104324,9 +104376,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:138">
+    <row r="250" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -104740,9 +104792,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:138">
+    <row r="251" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -105156,9 +105208,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:138">
+    <row r="252" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -105572,9 +105624,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:138">
+    <row r="253" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -105988,9 +106040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:138">
+    <row r="254" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -106404,9 +106456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:138">
+    <row r="255" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -106820,9 +106872,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:138">
+    <row r="256" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -107236,9 +107288,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:138">
+    <row r="257" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -107652,7 +107704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:138">
+    <row r="258" spans="1:138" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="259" spans="1:138" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>394</v>
       </c>
